--- a/data_year/zb/国民经济核算/资金流量表(实物交易)/住户部门/资金来源.xlsx
+++ b/data_year/zb/国民经济核算/资金流量表(实物交易)/住户部门/资金来源.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,42 +603,42 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>584.7178105002</v>
+        <v>4699.24032055884</v>
       </c>
       <c r="C2" t="n">
-        <v>69.19</v>
+        <v>1645.36895106754</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>64336.9859861166</v>
+        <v>234426.197189994</v>
       </c>
       <c r="I2" t="n">
-        <v>2869.22854678127</v>
+        <v>10245.9899988827</v>
       </c>
       <c r="J2" t="n">
-        <v>52242.87146784</v>
+        <v>190869.465529643</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>64764.4555462352</v>
+        <v>229965.430369814</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>31916.3</v>
+        <v>112270.343962277</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>20684.0690521574</v>
+        <v>102363.140390026</v>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
@@ -648,20 +648,20 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>2385.6</v>
+        <v>16207.243134</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>980.564076560261</v>
+        <v>6137.51478653894</v>
       </c>
       <c r="AD2" t="n">
-        <v>126.78</v>
+        <v>1065.32122290804</v>
       </c>
       <c r="AE2" t="n">
-        <v>3950.88188706046</v>
+        <v>27043.9982410978</v>
       </c>
       <c r="AF2" t="n">
-        <v>3065.19854678127</v>
+        <v>12956.6801728583</v>
       </c>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
@@ -669,42 +669,42 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>765.643544619123</v>
+        <v>5354.80890028237</v>
       </c>
       <c r="C3" t="n">
-        <v>66.33</v>
+        <v>1828.9079470707</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>69426.7273341385</v>
+        <v>280607.203856845</v>
       </c>
       <c r="I3" t="n">
-        <v>2658.02945568417</v>
+        <v>15913.5608307713</v>
       </c>
       <c r="J3" t="n">
-        <v>57529.83341835</v>
+        <v>222423.840815893</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>69691.3087286177</v>
+        <v>274930.226703895</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>33499.5</v>
+        <v>132941.362329685</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>22429.4434198658</v>
+        <v>116815.982541321</v>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
@@ -714,20 +714,20 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>2748</v>
+        <v>20363.89</v>
       </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
-        <v>1160.5988830443</v>
+        <v>7588.84553154888</v>
       </c>
       <c r="AD3" t="n">
-        <v>219.36</v>
+        <v>1110.75864676836</v>
       </c>
       <c r="AE3" t="n">
-        <v>4674.24242766342</v>
+        <v>33307.5444318313</v>
       </c>
       <c r="AF3" t="n">
-        <v>2943.71945568417</v>
+        <v>18853.2274246104</v>
       </c>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
@@ -735,42 +735,42 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1147.5534745432</v>
+        <v>5320.70468293713</v>
       </c>
       <c r="C4" t="n">
-        <v>57.54</v>
+        <v>2150.85791321185</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>74831.3149844499</v>
+        <v>315912.632161851</v>
       </c>
       <c r="I4" t="n">
-        <v>2584.88125181632</v>
+        <v>20474.7789441806</v>
       </c>
       <c r="J4" t="n">
-        <v>64501.50788725</v>
+        <v>256563.937218192</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>75015.7022276232</v>
+        <v>308344.771020523</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>34364</v>
+        <v>145475.085248021</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>24366.7194864397</v>
+        <v>130814.555046376</v>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
@@ -780,20 +780,20 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>3471.5</v>
+        <v>23930.6977</v>
       </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>1164.77421550095</v>
+        <v>8708.27953300119</v>
       </c>
       <c r="AD4" t="n">
-        <v>340.58</v>
+        <v>1710.9253565</v>
       </c>
       <c r="AE4" t="n">
-        <v>5783.82769004414</v>
+        <v>37959.6819159383</v>
       </c>
       <c r="AF4" t="n">
-        <v>2983.00125181632</v>
+        <v>24336.5622138925</v>
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
@@ -801,42 +801,42 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1533.71680549516</v>
+        <v>5345.38523073015</v>
       </c>
       <c r="C5" t="n">
-        <v>79.90000000000001</v>
+        <v>1675.71544564695</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>82944.6024550444</v>
+        <v>350595.562138416</v>
       </c>
       <c r="I5" t="n">
-        <v>2882.75370175815</v>
+        <v>18429.3309291631</v>
       </c>
       <c r="J5" t="n">
-        <v>71735.73861997</v>
+        <v>298966.094365619</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>83012.3183526511</v>
+        <v>341749.705414452</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>39806.4930125779</v>
+        <v>144991.5156452</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>29618.6496366924</v>
+        <v>137350.858828245</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -846,20 +846,20 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>4016.4</v>
+        <v>28743.9264</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>1519.85034782609</v>
+        <v>10090.9631662903</v>
       </c>
       <c r="AD5" t="n">
-        <v>249.3</v>
+        <v>1719.393246</v>
       </c>
       <c r="AE5" t="n">
-        <v>7069.96715332125</v>
+        <v>44180.2747970205</v>
       </c>
       <c r="AF5" t="n">
-        <v>3211.95370175815</v>
+        <v>21824.4396208101</v>
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
@@ -867,42 +867,42 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2023.82549478922</v>
+        <v>4818.82143985035</v>
       </c>
       <c r="C6" t="n">
-        <v>134.865339200412</v>
+        <v>2272.39258856216</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>94439.1542601258</v>
+        <v>383786.824633011</v>
       </c>
       <c r="I6" t="n">
-        <v>3230.90634103508</v>
+        <v>20255.443281768</v>
       </c>
       <c r="J6" t="n">
-        <v>80950.745184688</v>
+        <v>328347.367692841</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>94545.64240932259</v>
+        <v>373626.512522391</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>44677.094944478</v>
+        <v>156800.413512807</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>33290.4354212069</v>
+        <v>148569.95126332</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -912,20 +912,20 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>4627.4</v>
+        <v>33680.572168</v>
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>2020.72</v>
+        <v>10672.2051321483</v>
       </c>
       <c r="AD6" t="n">
-        <v>402.61</v>
+        <v>1980.92004</v>
       </c>
       <c r="AE6" t="n">
-        <v>8671.945494789221</v>
+        <v>49171.5987399987</v>
       </c>
       <c r="AF6" t="n">
-        <v>3768.38168023549</v>
+        <v>24508.7559103301</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
@@ -933,44 +933,42 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2319.2286319639</v>
+        <v>4974.51901939264</v>
       </c>
       <c r="C7" t="n">
-        <v>307.300240281632</v>
+        <v>3060.08450190109</v>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>3699.849262</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>107911.680989906</v>
+        <v>416384.960157714</v>
       </c>
       <c r="I7" t="n">
-        <v>3733.40884449352</v>
+        <v>19534.1106071072</v>
       </c>
       <c r="J7" t="n">
-        <v>93147.994923299</v>
+        <v>357075.812697445</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>107217.032570636</v>
+        <v>404897.471128653</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>51612.1076423184</v>
+        <v>167734.573662428</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>39951.4565885049</v>
+        <v>156649.109327061</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
@@ -980,20 +978,20 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>5400.8</v>
+        <v>39117.6609268015</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>2241.91</v>
+        <v>11687.5693385345</v>
       </c>
       <c r="AD7" t="n">
-        <v>440.72</v>
+        <v>2314.61936</v>
       </c>
       <c r="AE7" t="n">
-        <v>9961.9386319639</v>
+        <v>55779.7492847287</v>
       </c>
       <c r="AF7" t="n">
-        <v>4481.42908477516</v>
+        <v>24908.8144690083</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
@@ -1001,42 +999,42 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2625.25424978941</v>
+        <v>5157.19275925491</v>
       </c>
       <c r="C8" t="n">
-        <v>689.5695254141229</v>
+        <v>4986.19770937279</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>126128.72420867</v>
+        <v>452563.659002726</v>
       </c>
       <c r="I8" t="n">
-        <v>6082.62704007611</v>
+        <v>19739.6231492547</v>
       </c>
       <c r="J8" t="n">
-        <v>106368.998961</v>
+        <v>386563.584624267</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>125117.580960233</v>
+        <v>441165.52296853</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>60088.4347329239</v>
+        <v>180928.642559673</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>48850.916937775</v>
+        <v>166091.643487681</v>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
@@ -1046,20 +1044,20 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>6477.4</v>
+        <v>43604.8474</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="n">
-        <v>2807.754</v>
+        <v>12564.6913470223</v>
       </c>
       <c r="AD8" t="n">
-        <v>474.172789194947</v>
+        <v>2525.71428</v>
       </c>
       <c r="AE8" t="n">
-        <v>11910.4082497894</v>
+        <v>61326.7315062772</v>
       </c>
       <c r="AF8" t="n">
-        <v>7246.36935468518</v>
+        <v>27251.5351386275</v>
       </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
@@ -1067,42 +1065,42 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3401.99259730056</v>
+        <v>5328.01338539646</v>
       </c>
       <c r="C9" t="n">
-        <v>1759.6530061219</v>
+        <v>5303.39733178138</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>155533.871960141</v>
+        <v>506671.953656298</v>
       </c>
       <c r="I9" t="n">
-        <v>7256.82581009957</v>
+        <v>22713.8431157119</v>
       </c>
       <c r="J9" t="n">
-        <v>127918.919044464</v>
+        <v>424279.362420531</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>152265.316521817</v>
+        <v>489176.864282959</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>73130.06816836281</v>
+        <v>176879.156223795</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>62226.1333666694</v>
+        <v>180564.082856835</v>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
@@ -1112,20 +1110,20 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
-        <v>7887.9</v>
+        <v>48652.99</v>
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="n">
-        <v>3364.59583</v>
+        <v>13490.5172820562</v>
       </c>
       <c r="AD9" t="n">
-        <v>812.396536557077</v>
+        <v>2610.581785</v>
       </c>
       <c r="AE9" t="n">
-        <v>14654.4884273006</v>
+        <v>67471.5206674527</v>
       </c>
       <c r="AF9" t="n">
-        <v>9828.87535277855</v>
+        <v>30627.8222324933</v>
       </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
@@ -1133,42 +1131,42 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3818.89560608382</v>
+        <v>5712.10459917619</v>
       </c>
       <c r="C10" t="n">
-        <v>1261.94482674905</v>
+        <v>5274.91065865302</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>183074.763519697</v>
+        <v>559446.4728664</v>
       </c>
       <c r="I10" t="n">
-        <v>9798.443518999889</v>
+        <v>31552.8476230025</v>
       </c>
       <c r="J10" t="n">
-        <v>150511.686239537</v>
+        <v>475562.812842451</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>179880.320354915</v>
+        <v>543300.943681046</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>83542.8866201873</v>
+        <v>180639.912889805</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>74255.9086914738</v>
+        <v>189176.565513526</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
@@ -1178,20 +1176,20 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>9925.1</v>
+        <v>49586.7</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="n">
-        <v>5156.87594</v>
+        <v>15311.2321298458</v>
       </c>
       <c r="AD10" t="n">
-        <v>731.539963730864</v>
+        <v>3072.36238</v>
       </c>
       <c r="AE10" t="n">
-        <v>18900.8715460838</v>
+        <v>70610.036729022</v>
       </c>
       <c r="AF10" t="n">
-        <v>11791.9283094798</v>
+        <v>39900.1206616555</v>
       </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
@@ -1199,42 +1197,42 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3665.84674451808</v>
+        <v>5924.21529580467</v>
       </c>
       <c r="C11" t="n">
-        <v>1498.63399876678</v>
+        <v>5740.0120879755</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>201147.446384222</v>
+        <v>604241.648383502</v>
       </c>
       <c r="I11" t="n">
-        <v>9067.753527455779</v>
+        <v>35223.3389979925</v>
       </c>
       <c r="J11" t="n">
-        <v>166957.943999446</v>
+        <v>513472.070732208</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>197488.316843318</v>
+        <v>593712.747295821</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>92511.4020438836</v>
+        <v>197311.546449012</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>83717.77085942691</v>
+        <v>206524.647771364</v>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
@@ -1244,20 +1242,20 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
-        <v>12302.6</v>
+        <v>53979.95</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
-        <v>6246.031731</v>
+        <v>16258.2862149383</v>
       </c>
       <c r="AD11" t="n">
-        <v>792.6688437217269</v>
+        <v>3466.57148683066</v>
       </c>
       <c r="AE11" t="n">
-        <v>22214.4784755181</v>
+        <v>76162.4515107429</v>
       </c>
       <c r="AF11" t="n">
-        <v>11359.0563699443</v>
+        <v>44429.9225727986</v>
       </c>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
@@ -1265,42 +1263,42 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4699.24032055884</v>
+        <v>6655.57444673039</v>
       </c>
       <c r="C12" t="n">
-        <v>1645.36895106754</v>
+        <v>6815.46052224615</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>234426.197189994</v>
+        <v>623738.101794507</v>
       </c>
       <c r="I12" t="n">
-        <v>10245.9899988827</v>
+        <v>38432.760248316</v>
       </c>
       <c r="J12" t="n">
-        <v>190869.465529643</v>
+        <v>529580.54131308</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>229965.430369814</v>
+        <v>625798.455756693</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>112270.343962277</v>
+        <v>196887.631688779</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>102363.140390026</v>
+        <v>238612.694634511</v>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
@@ -1310,20 +1308,20 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>16207.243134</v>
+        <v>57360.01</v>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="n">
-        <v>6137.51478653894</v>
+        <v>16958.6769941084</v>
       </c>
       <c r="AD12" t="n">
-        <v>1065.32122290804</v>
+        <v>3887.5805</v>
       </c>
       <c r="AE12" t="n">
-        <v>27043.9982410978</v>
+        <v>80974.2614408388</v>
       </c>
       <c r="AF12" t="n">
-        <v>12956.6801728583</v>
+        <v>49135.8012705622</v>
       </c>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
@@ -1331,42 +1329,42 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5354.80890028237</v>
+        <v>7879.41536608464</v>
       </c>
       <c r="C13" t="n">
-        <v>1828.9079470707</v>
+        <v>7750.83687896354</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>280607.203856845</v>
+        <v>696584.86376075</v>
       </c>
       <c r="I13" t="n">
-        <v>15913.5608307713</v>
+        <v>42915.9104898575</v>
       </c>
       <c r="J13" t="n">
-        <v>222423.840815893</v>
+        <v>589209.702027812</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>274930.226703895</v>
+        <v>681605.808104819</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>132941.362329685</v>
+        <v>219612.61613858</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>116815.982541321</v>
+        <v>243590.622385459</v>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
@@ -1376,551 +1374,23 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>20363.89</v>
+        <v>62503.83</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="n">
-        <v>7588.84553154888</v>
+        <v>16296.9556922389</v>
       </c>
       <c r="AD13" t="n">
-        <v>1110.75864676836</v>
+        <v>4576.0464</v>
       </c>
       <c r="AE13" t="n">
-        <v>33307.5444318313</v>
+        <v>86680.2010583236</v>
       </c>
       <c r="AF13" t="n">
-        <v>18853.2274246104</v>
+        <v>55242.7937688211</v>
       </c>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5320.70468293713</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2150.85791321185</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>315912.632161851</v>
-      </c>
-      <c r="I14" t="n">
-        <v>20474.7789441806</v>
-      </c>
-      <c r="J14" t="n">
-        <v>256563.937218192</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>308344.771020523</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>145475.085248021</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>130814.555046376</v>
-      </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="n">
-        <v>23930.6977</v>
-      </c>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="n">
-        <v>8708.27953300119</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1710.9253565</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>37959.6819159383</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>24336.5622138925</v>
-      </c>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5345.38523073015</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1675.71544564695</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>350595.562138416</v>
-      </c>
-      <c r="I15" t="n">
-        <v>18429.3309291631</v>
-      </c>
-      <c r="J15" t="n">
-        <v>298966.094365619</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>341749.705414452</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
-        <v>144991.5156452</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>137350.858828245</v>
-      </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="n">
-        <v>28743.9264</v>
-      </c>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="n">
-        <v>10090.9631662903</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1719.393246</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>44180.2747970205</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>21824.4396208101</v>
-      </c>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4818.82143985035</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2272.39258856216</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>383786.824633011</v>
-      </c>
-      <c r="I16" t="n">
-        <v>20255.443281768</v>
-      </c>
-      <c r="J16" t="n">
-        <v>328347.367692841</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>373626.512522391</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
-        <v>156800.413512807</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>148569.95126332</v>
-      </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="n">
-        <v>33680.572168</v>
-      </c>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="n">
-        <v>10672.2051321483</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1980.92004</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>49171.5987399987</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>24508.7559103301</v>
-      </c>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4974.51901939264</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3060.08450190109</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>416384.960157714</v>
-      </c>
-      <c r="I17" t="n">
-        <v>19534.1106071072</v>
-      </c>
-      <c r="J17" t="n">
-        <v>357075.812697445</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>404897.471128653</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>167734.573662428</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>156649.109327061</v>
-      </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="n">
-        <v>39117.6609268015</v>
-      </c>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="n">
-        <v>11687.5693385345</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>2314.61936</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>55779.7492847287</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>24908.8144690083</v>
-      </c>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5157.19275925491</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4986.19770937279</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>452563.659002726</v>
-      </c>
-      <c r="I18" t="n">
-        <v>19739.6231492547</v>
-      </c>
-      <c r="J18" t="n">
-        <v>386563.584624267</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>441165.52296853</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>180928.642559673</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>166091.643487681</v>
-      </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="n">
-        <v>43604.8474</v>
-      </c>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="n">
-        <v>12564.6913470223</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>2525.71428</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>61326.7315062772</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>27251.5351386275</v>
-      </c>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>5328.01338539646</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5303.39733178138</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>506671.953656298</v>
-      </c>
-      <c r="I19" t="n">
-        <v>22713.8431157119</v>
-      </c>
-      <c r="J19" t="n">
-        <v>424279.362420531</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>489176.864282959</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>176879.156223795</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>180564.082856835</v>
-      </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="n">
-        <v>48652.99</v>
-      </c>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="n">
-        <v>13490.5172820562</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>2610.581785</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>67471.5206674527</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>30627.8222324933</v>
-      </c>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5712.10459917619</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5274.91065865302</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>559446.4728664</v>
-      </c>
-      <c r="I20" t="n">
-        <v>31552.8476230025</v>
-      </c>
-      <c r="J20" t="n">
-        <v>475562.812842451</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>543300.943681046</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>180639.912889805</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>189176.565513526</v>
-      </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="n">
-        <v>49586.7</v>
-      </c>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="n">
-        <v>15311.2321298458</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>3072.36238</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>70610.036729022</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>39900.1206616555</v>
-      </c>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5924.21529580467</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5740.0120879755</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>604241.648383502</v>
-      </c>
-      <c r="I21" t="n">
-        <v>35223.3389979925</v>
-      </c>
-      <c r="J21" t="n">
-        <v>513472.070732208</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>593712.747295821</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="n">
-        <v>197311.546449012</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
-        <v>206524.647771364</v>
-      </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="n">
-        <v>53979.95</v>
-      </c>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="n">
-        <v>16258.2862149383</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>3466.57148683066</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>76162.4515107429</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>44429.9225727986</v>
-      </c>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
